--- a/words.xlsx
+++ b/words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эльдар\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\OrangePlaylistPracticeEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B52F4E1-9602-4AF0-83B2-1B093852E835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886527B6-C3E4-434F-B8B2-FB38F320804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1340">
   <si>
     <t xml:space="preserve"> инициатива</t>
   </si>
@@ -10285,6 +10285,42 @@
   </si>
   <si>
     <t>We’re running out of time</t>
+  </si>
+  <si>
+    <t>fed up with</t>
+  </si>
+  <si>
+    <t>сыт по горло</t>
+  </si>
+  <si>
+    <t>He’s fed up with these comments</t>
+  </si>
+  <si>
+    <t>get off</t>
+  </si>
+  <si>
+    <t>сойти с транспорта (большого)</t>
+  </si>
+  <si>
+    <t>I got off the bus</t>
+  </si>
+  <si>
+    <t>выйти с (машины)</t>
+  </si>
+  <si>
+    <t>I can’t get out of the car.</t>
+  </si>
+  <si>
+    <t>I need to lie down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look up </t>
+  </si>
+  <si>
+    <t>I’ll look up this word in a dictionary</t>
+  </si>
+  <si>
+    <t>посмотреть в словаре</t>
   </si>
 </sst>
 </file>
@@ -14464,10 +14500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:E84"/>
+  <dimension ref="B2:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15342,6 +15378,61 @@
       </c>
       <c r="D84" t="s">
         <v>1327</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>460</v>
+      </c>
+      <c r="C88" t="s">
+        <v>461</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1338</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\OrangePlaylistPracticeEnglish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886527B6-C3E4-434F-B8B2-FB38F320804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$2:$E$115</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1375">
   <si>
     <t xml:space="preserve"> инициатива</t>
   </si>
@@ -10287,46 +10286,151 @@
     <t>We’re running out of time</t>
   </si>
   <si>
-    <t>fed up with</t>
-  </si>
-  <si>
-    <t>сыт по горло</t>
-  </si>
-  <si>
-    <t>He’s fed up with these comments</t>
+    <t>to be fed up with</t>
   </si>
   <si>
     <t>get off</t>
   </si>
   <si>
+    <t>look up</t>
+  </si>
+  <si>
+    <t>look up to</t>
+  </si>
+  <si>
+    <t>look down on</t>
+  </si>
+  <si>
+    <t>смотреть с высока</t>
+  </si>
+  <si>
+    <t>live up to</t>
+  </si>
+  <si>
+    <t>оправдать(н: ожидания)</t>
+  </si>
+  <si>
+    <t>help out</t>
+  </si>
+  <si>
+    <t>выручать</t>
+  </si>
+  <si>
+    <t>dress up</t>
+  </si>
+  <si>
+    <t>наряжаться (официально)</t>
+  </si>
+  <si>
+    <t>dress down</t>
+  </si>
+  <si>
+    <t>одеваться попроще</t>
+  </si>
+  <si>
+    <t>get at</t>
+  </si>
+  <si>
+    <t>предлагать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bump into </t>
+  </si>
+  <si>
+    <t>налетать, столкнуться</t>
+  </si>
+  <si>
+    <t>run into</t>
+  </si>
+  <si>
+    <t>set off</t>
+  </si>
+  <si>
+    <t>set out</t>
+  </si>
+  <si>
+    <t>отправиться в путь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point out </t>
+  </si>
+  <si>
+    <t>обратить внимание, указать</t>
+  </si>
+  <si>
+    <t>понимать, вычислять</t>
+  </si>
+  <si>
+    <t>make out</t>
+  </si>
+  <si>
+    <t>make up</t>
+  </si>
+  <si>
+    <t>составить, сочинить</t>
+  </si>
+  <si>
+    <t>быть сытым по горло</t>
+  </si>
+  <si>
+    <t>He’s fed up with these comments.</t>
+  </si>
+  <si>
+    <t>I got off the bus</t>
+  </si>
+  <si>
     <t>сойти с транспорта (большого)</t>
   </si>
   <si>
-    <t>I got off the bus</t>
-  </si>
-  <si>
-    <t>выйти с (машины)</t>
-  </si>
-  <si>
-    <t>I can’t get out of the car.</t>
-  </si>
-  <si>
-    <t>I need to lie down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">look up </t>
+    <t>I lay down</t>
+  </si>
+  <si>
+    <t>посмотреть в справочнике</t>
   </si>
   <si>
     <t>I’ll look up this word in a dictionary</t>
   </si>
   <si>
-    <t>посмотреть в словаре</t>
+    <t>I look up to this person</t>
+  </si>
+  <si>
+    <t>Our boss looks down on his employees</t>
+  </si>
+  <si>
+    <t>It didn’t to live up to my expectations at all</t>
+  </si>
+  <si>
+    <t>They often help me out.</t>
+  </si>
+  <si>
+    <t>He often dresses up</t>
+  </si>
+  <si>
+    <t>He prefers to dress down</t>
+  </si>
+  <si>
+    <t>What are you getting at?</t>
+  </si>
+  <si>
+    <t>I bumped into him in the local supermarket</t>
+  </si>
+  <si>
+    <t>We set off very early</t>
+  </si>
+  <si>
+    <t>I’d like to point out that too little is done</t>
+  </si>
+  <si>
+    <t>I can’t figure out how it works</t>
+  </si>
+  <si>
+    <t>I made up this story</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -10716,7 +10820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E236"/>
   <sheetViews>
     <sheetView topLeftCell="A232" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -13064,14 +13168,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:E115"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13100,7 +13204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E222"/>
   <sheetViews>
     <sheetView topLeftCell="B197" workbookViewId="0">
@@ -14499,11 +14603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:E89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15385,54 +15489,184 @@
         <v>1328</v>
       </c>
       <c r="C85" t="s">
-        <v>1329</v>
+        <v>1356</v>
       </c>
       <c r="D85" t="s">
-        <v>1330</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C86" t="s">
-        <v>1332</v>
+        <v>1359</v>
       </c>
       <c r="D86" t="s">
-        <v>1333</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>1207</v>
+        <v>460</v>
       </c>
       <c r="C87" t="s">
-        <v>1334</v>
+        <v>461</v>
       </c>
       <c r="D87" t="s">
-        <v>1335</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>460</v>
+        <v>1330</v>
       </c>
       <c r="C88" t="s">
-        <v>461</v>
+        <v>1361</v>
       </c>
       <c r="D88" t="s">
-        <v>1336</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C92" t="s">
         <v>1337</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D92" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C93" t="s">
         <v>1339</v>
       </c>
-      <c r="D89" t="s">
-        <v>1338</v>
+      <c r="D93" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>641</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -15442,7 +15676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">

--- a/words.xlsx
+++ b/words.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\English\Orange\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1459">
   <si>
     <t xml:space="preserve"> инициатива</t>
   </si>
@@ -10425,6 +10425,258 @@
   </si>
   <si>
     <t>I made up this story</t>
+  </si>
+  <si>
+    <t>Make up for</t>
+  </si>
+  <si>
+    <t>компенсировать что-то</t>
+  </si>
+  <si>
+    <t>Who will make up for these losses?</t>
+  </si>
+  <si>
+    <t>meet up</t>
+  </si>
+  <si>
+    <t>пересечься</t>
+  </si>
+  <si>
+    <t>I’d like to meet up with you.</t>
+  </si>
+  <si>
+    <t>sum up</t>
+  </si>
+  <si>
+    <t>подводить итог</t>
+  </si>
+  <si>
+    <t>To sum up, my English really became much better.</t>
+  </si>
+  <si>
+    <t>Catch/Keep up with</t>
+  </si>
+  <si>
+    <t>догнать</t>
+  </si>
+  <si>
+    <t>I’ll try to catch up with them.</t>
+  </si>
+  <si>
+    <t>fall/lag behind</t>
+  </si>
+  <si>
+    <t>Отставать</t>
+  </si>
+  <si>
+    <t>Study harder or you can fall behind.</t>
+  </si>
+  <si>
+    <t>come along</t>
+  </si>
+  <si>
+    <t>идти вместе</t>
+  </si>
+  <si>
+    <t>We’re going there. Do you want to come along (with us)?</t>
+  </si>
+  <si>
+    <t>fall out</t>
+  </si>
+  <si>
+    <t>ссориться</t>
+  </si>
+  <si>
+    <t>They fell out for no reason.</t>
+  </si>
+  <si>
+    <t>put forward</t>
+  </si>
+  <si>
+    <t>выдвигать, предлагать</t>
+  </si>
+  <si>
+    <t>A very interesting plan was put forward.</t>
+  </si>
+  <si>
+    <t>show off</t>
+  </si>
+  <si>
+    <t>выпендриваться</t>
+  </si>
+  <si>
+    <t>I don’t understand people who show off.</t>
+  </si>
+  <si>
+    <t>show up</t>
+  </si>
+  <si>
+    <t>появляться</t>
+  </si>
+  <si>
+    <t>They showed up in the end.</t>
+  </si>
+  <si>
+    <t>knock out</t>
+  </si>
+  <si>
+    <t>вырубать, нокаутировать</t>
+  </si>
+  <si>
+    <t>He was knocked out</t>
+  </si>
+  <si>
+    <t>knock down</t>
+  </si>
+  <si>
+    <t>сбить</t>
+  </si>
+  <si>
+    <t>He was knocked down by car</t>
+  </si>
+  <si>
+    <t>count on</t>
+  </si>
+  <si>
+    <t>рассчитывать на</t>
+  </si>
+  <si>
+    <t>You can always count on my support</t>
+  </si>
+  <si>
+    <t>rely on</t>
+  </si>
+  <si>
+    <t>полагаться</t>
+  </si>
+  <si>
+    <t>I wouldn’t rely on him</t>
+  </si>
+  <si>
+    <t>take in</t>
+  </si>
+  <si>
+    <t>обманывать, принимать</t>
+  </si>
+  <si>
+    <t>He was taken in.</t>
+  </si>
+  <si>
+    <t>take back</t>
+  </si>
+  <si>
+    <t>возвращать</t>
+  </si>
+  <si>
+    <t>When will you take back these books?</t>
+  </si>
+  <si>
+    <t>see off</t>
+  </si>
+  <si>
+    <t>проводить</t>
+  </si>
+  <si>
+    <t>Will you see me off?</t>
+  </si>
+  <si>
+    <t>grow out of</t>
+  </si>
+  <si>
+    <t>вырастать из</t>
+  </si>
+  <si>
+    <t>The children grew up of these clothes.</t>
+  </si>
+  <si>
+    <t>give off</t>
+  </si>
+  <si>
+    <t>испускать, выделять</t>
+  </si>
+  <si>
+    <t>The food gives off a very unpleasant smell</t>
+  </si>
+  <si>
+    <t>Pass/black out</t>
+  </si>
+  <si>
+    <t>терять сознание</t>
+  </si>
+  <si>
+    <t>He passed out</t>
+  </si>
+  <si>
+    <t>bring about</t>
+  </si>
+  <si>
+    <t>вызывать (изменения), привести в действие</t>
+  </si>
+  <si>
+    <t>What brought about these changes?</t>
+  </si>
+  <si>
+    <t>подождать</t>
+  </si>
+  <si>
+    <t>hold/hang on</t>
+  </si>
+  <si>
+    <t>Hold on a couple of minutes</t>
+  </si>
+  <si>
+    <t>get around/round</t>
+  </si>
+  <si>
+    <t>осмотреть</t>
+  </si>
+  <si>
+    <t>I’d like to get round the city.</t>
+  </si>
+  <si>
+    <t>объяснить, донести</t>
+  </si>
+  <si>
+    <t>I’ll try to get this idea/message across</t>
+  </si>
+  <si>
+    <t>get/put across</t>
+  </si>
+  <si>
+    <t>end up</t>
+  </si>
+  <si>
+    <t>закончиться действием</t>
+  </si>
+  <si>
+    <t>They ended up fighting.</t>
+  </si>
+  <si>
+    <t>end in</t>
+  </si>
+  <si>
+    <t>закончиться чем-то</t>
+  </si>
+  <si>
+    <t>Their marriage ended up in divorce.</t>
+  </si>
+  <si>
+    <t>run over</t>
+  </si>
+  <si>
+    <t>переехать (что то)</t>
+  </si>
+  <si>
+    <t>She was run over by a bus</t>
+  </si>
+  <si>
+    <t>read out</t>
+  </si>
+  <si>
+    <t>прочесть в слух</t>
+  </si>
+  <si>
+    <t>Can you read it out?</t>
   </si>
 </sst>
 </file>
@@ -14604,15 +14856,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E100"/>
+  <dimension ref="B2:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -15667,6 +15919,314 @@
       </c>
       <c r="D100" t="s">
         <v>1374</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1458</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1559">
   <si>
     <t xml:space="preserve"> инициатива</t>
   </si>
@@ -10677,6 +10677,306 @@
   </si>
   <si>
     <t>Can you read it out?</t>
+  </si>
+  <si>
+    <t>Drop in</t>
+  </si>
+  <si>
+    <t>зайти, навестить</t>
+  </si>
+  <si>
+    <t>Call in on, Come around</t>
+  </si>
+  <si>
+    <t>Will you drop in on me?</t>
+  </si>
+  <si>
+    <t>base on</t>
+  </si>
+  <si>
+    <t>базироваться, основываться</t>
+  </si>
+  <si>
+    <t>This story is based on real facts.</t>
+  </si>
+  <si>
+    <t>print out</t>
+  </si>
+  <si>
+    <t>распечатать</t>
+  </si>
+  <si>
+    <t>I’ll print out these materials.</t>
+  </si>
+  <si>
+    <t>mix up</t>
+  </si>
+  <si>
+    <t>смешивать, путать</t>
+  </si>
+  <si>
+    <t>Don’t mix up these things.</t>
+  </si>
+  <si>
+    <t>stay in</t>
+  </si>
+  <si>
+    <t>сидеть дома</t>
+  </si>
+  <si>
+    <t>She often stays in.</t>
+  </si>
+  <si>
+    <t>stay out</t>
+  </si>
+  <si>
+    <t>быть не дома, не вмешиваться</t>
+  </si>
+  <si>
+    <t>He often stays out.</t>
+  </si>
+  <si>
+    <t>eat in</t>
+  </si>
+  <si>
+    <t>есть дома</t>
+  </si>
+  <si>
+    <t>I prefer to eat in.</t>
+  </si>
+  <si>
+    <t>eat out</t>
+  </si>
+  <si>
+    <t>есть не дома</t>
+  </si>
+  <si>
+    <t>He prefers to eat out.</t>
+  </si>
+  <si>
+    <t>stay up</t>
+  </si>
+  <si>
+    <t>не ложиться спать, оставаться на ногах</t>
+  </si>
+  <si>
+    <t>He stayed up to watch these lessons.</t>
+  </si>
+  <si>
+    <t>pick up</t>
+  </si>
+  <si>
+    <t>подобрать, забрать</t>
+  </si>
+  <si>
+    <t>I’ll pick you up after school</t>
+  </si>
+  <si>
+    <t>sort out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уладить </t>
+  </si>
+  <si>
+    <t>I sorted out this problem very easily</t>
+  </si>
+  <si>
+    <t>iron out</t>
+  </si>
+  <si>
+    <t>breathe in</t>
+  </si>
+  <si>
+    <t>вдохнуть</t>
+  </si>
+  <si>
+    <t>Breathe in!</t>
+  </si>
+  <si>
+    <t>breathe out</t>
+  </si>
+  <si>
+    <t>выдохнуть</t>
+  </si>
+  <si>
+    <t>Breathe out!</t>
+  </si>
+  <si>
+    <t>back up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I’ll back you up.</t>
+  </si>
+  <si>
+    <t>поддерживать (support)</t>
+  </si>
+  <si>
+    <t>сохранить (резервное хранение)</t>
+  </si>
+  <si>
+    <t>I backed up this document</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>How often do you work out there?</t>
+  </si>
+  <si>
+    <t>тренироваться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try out </t>
+  </si>
+  <si>
+    <t>проверить, протестировать</t>
+  </si>
+  <si>
+    <t>I’d like to try out this café</t>
+  </si>
+  <si>
+    <t>get through</t>
+  </si>
+  <si>
+    <t>дозвониться</t>
+  </si>
+  <si>
+    <t>I called her but I couldn’t get through</t>
+  </si>
+  <si>
+    <t>основать (компанию)</t>
+  </si>
+  <si>
+    <t>Start up</t>
+  </si>
+  <si>
+    <t>He set up a very profitable business</t>
+  </si>
+  <si>
+    <t>keep on</t>
+  </si>
+  <si>
+    <t>продолжать делать что-то</t>
+  </si>
+  <si>
+    <t>Keep on doing it!</t>
+  </si>
+  <si>
+    <t>продолжать что-то</t>
+  </si>
+  <si>
+    <t>keep up</t>
+  </si>
+  <si>
+    <t>Keep up the good work</t>
+  </si>
+  <si>
+    <t>come up against</t>
+  </si>
+  <si>
+    <t>run up against</t>
+  </si>
+  <si>
+    <t>сталкиваться</t>
+  </si>
+  <si>
+    <t>I came up against different difficulties.</t>
+  </si>
+  <si>
+    <t>come out</t>
+  </si>
+  <si>
+    <t>выходить (например книга)</t>
+  </si>
+  <si>
+    <t>when will this book come out?</t>
+  </si>
+  <si>
+    <t>испортиться</t>
+  </si>
+  <si>
+    <t>All the food went off</t>
+  </si>
+  <si>
+    <t>close down</t>
+  </si>
+  <si>
+    <t>закрыть (заведение, дело)</t>
+  </si>
+  <si>
+    <t>He closed down his business/shop.</t>
+  </si>
+  <si>
+    <t>Nod off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doze off </t>
+  </si>
+  <si>
+    <t>задремать</t>
+  </si>
+  <si>
+    <t>He nodded off during the lecture.</t>
+  </si>
+  <si>
+    <t>put up</t>
+  </si>
+  <si>
+    <t>He put up this picture</t>
+  </si>
+  <si>
+    <t>поднять (цену)</t>
+  </si>
+  <si>
+    <t>They want to put up the price.</t>
+  </si>
+  <si>
+    <t>put up with</t>
+  </si>
+  <si>
+    <t>мириться с чем-то, терпеть</t>
+  </si>
+  <si>
+    <t>I’m not going to put up with it.</t>
+  </si>
+  <si>
+    <t>move in</t>
+  </si>
+  <si>
+    <t>въехать (в новое место)</t>
+  </si>
+  <si>
+    <t>We’ve already moved in.</t>
+  </si>
+  <si>
+    <t>съехать</t>
+  </si>
+  <si>
+    <t>move out</t>
+  </si>
+  <si>
+    <t>We’ve just moved out.</t>
+  </si>
+  <si>
+    <t>move on to</t>
+  </si>
+  <si>
+    <t>двигаться дальше к</t>
+  </si>
+  <si>
+    <t>Let’s move on to the next topic.</t>
+  </si>
+  <si>
+    <t>look out</t>
+  </si>
+  <si>
+    <t>watch out</t>
+  </si>
+  <si>
+    <t>Look out! I see a car.</t>
+  </si>
+  <si>
+    <t>берегись</t>
   </si>
 </sst>
 </file>
@@ -14856,10 +15156,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E128"/>
+  <dimension ref="B2:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16227,6 +16527,387 @@
       </c>
       <c r="D128" t="s">
         <v>1458</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>278</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>833</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C155" t="s">
+        <v>589</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1556</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\English\Orange\practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\OrangePlaylistPracticeEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B69AD-016D-4FF3-8A27-404D03C01BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$2:$E$115</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1839">
   <si>
     <t xml:space="preserve"> инициатива</t>
   </si>
@@ -2493,9 +2494,6 @@
     <t>end in smth</t>
   </si>
   <si>
-    <t>заканчиваться чем-либо</t>
-  </si>
-  <si>
     <t>tremble with smth</t>
   </si>
   <si>
@@ -10977,12 +10975,855 @@
   </si>
   <si>
     <t>берегись</t>
+  </si>
+  <si>
+    <t>обнаруживать</t>
+  </si>
+  <si>
+    <t>It’s highly unlikely that they’ll find out the truth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell out </t>
+  </si>
+  <si>
+    <t>распродать</t>
+  </si>
+  <si>
+    <t>All these things were sold out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy up </t>
+  </si>
+  <si>
+    <t>скупать</t>
+  </si>
+  <si>
+    <t>All the goods were bought out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">think over </t>
+  </si>
+  <si>
+    <t>обдумать</t>
+  </si>
+  <si>
+    <t>I’ll have to think it over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheer up </t>
+  </si>
+  <si>
+    <t>взбодрись</t>
+  </si>
+  <si>
+    <t>He told her to cheer up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use up </t>
+  </si>
+  <si>
+    <t>израсходовать (полностью)</t>
+  </si>
+  <si>
+    <t>They used up the gas/water</t>
+  </si>
+  <si>
+    <t>note down</t>
+  </si>
+  <si>
+    <t>записывать</t>
+  </si>
+  <si>
+    <t>I’ll note it down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fill in/out </t>
+  </si>
+  <si>
+    <t>заполнять (документ)</t>
+  </si>
+  <si>
+    <t>Fill in the gaps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do about </t>
+  </si>
+  <si>
+    <t>поделать с чем-либо</t>
+  </si>
+  <si>
+    <t>What can we do about it?</t>
+  </si>
+  <si>
+    <t>take over</t>
+  </si>
+  <si>
+    <t>поглотить</t>
+  </si>
+  <si>
+    <t>This company was taken over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold back </t>
+  </si>
+  <si>
+    <t>сдержать (эмоции, слезы)</t>
+  </si>
+  <si>
+    <t>She tried to hold back her tears.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put aside </t>
+  </si>
+  <si>
+    <t>отложить в сторону (сомнения)</t>
+  </si>
+  <si>
+    <t>Put all your doubts aside.</t>
+  </si>
+  <si>
+    <t>put out</t>
+  </si>
+  <si>
+    <t>потушить (огонь)</t>
+  </si>
+  <si>
+    <t>She put out the cigarette.</t>
+  </si>
+  <si>
+    <t>cross out</t>
+  </si>
+  <si>
+    <t>зачеркнуть</t>
+  </si>
+  <si>
+    <t>His name was crossed out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop out of </t>
+  </si>
+  <si>
+    <t>бросить (универ)</t>
+  </si>
+  <si>
+    <t>He dropped out of college</t>
+  </si>
+  <si>
+    <t>face up to</t>
+  </si>
+  <si>
+    <t>принять, смириться</t>
+  </si>
+  <si>
+    <t>Face up to the fact that we can’t change it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pay off </t>
+  </si>
+  <si>
+    <t>окупаться</t>
+  </si>
+  <si>
+    <t>I’m sure your hard work will pay off</t>
+  </si>
+  <si>
+    <t>consist of</t>
+  </si>
+  <si>
+    <t>This book consists of three parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give out </t>
+  </si>
+  <si>
+    <t>раздавать</t>
+  </si>
+  <si>
+    <t>He gave out his old clothes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand out </t>
+  </si>
+  <si>
+    <t>раздавать (материалы)</t>
+  </si>
+  <si>
+    <t>They handed out these leaflets/materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send out </t>
+  </si>
+  <si>
+    <t>рассылать</t>
+  </si>
+  <si>
+    <t>All the invitations were sent out</t>
+  </si>
+  <si>
+    <t>calm down</t>
+  </si>
+  <si>
+    <t>Успокойся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool down </t>
+  </si>
+  <si>
+    <t>остынь</t>
+  </si>
+  <si>
+    <t>deal with</t>
+  </si>
+  <si>
+    <t>иметь дело с</t>
+  </si>
+  <si>
+    <t>I usually deal with these clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get over </t>
+  </si>
+  <si>
+    <t>выздоравливать</t>
+  </si>
+  <si>
+    <t>He got over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bring back </t>
+  </si>
+  <si>
+    <t>напоминать, вызывать воспоминания</t>
+  </si>
+  <si>
+    <t>It brings me back very happy memories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush up on </t>
+  </si>
+  <si>
+    <t>освежить в памяти</t>
+  </si>
+  <si>
+    <t>I need to brush up on my English before going to the United States.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave out </t>
+  </si>
+  <si>
+    <t>не включить</t>
+  </si>
+  <si>
+    <t>His name was left out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go through </t>
+  </si>
+  <si>
+    <t>пережить (тяжелое время)</t>
+  </si>
+  <si>
+    <t>She’s going through a very difficult time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settle down </t>
+  </si>
+  <si>
+    <t>осесть, обзавестись семьей</t>
+  </si>
+  <si>
+    <t>When will he settle down?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try on </t>
+  </si>
+  <si>
+    <t>примерить</t>
+  </si>
+  <si>
+    <t>She tried on this dress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall apart </t>
+  </si>
+  <si>
+    <t>распадаться</t>
+  </si>
+  <si>
+    <t>So many families fall apart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut down on </t>
+  </si>
+  <si>
+    <t>сократить, урезать</t>
+  </si>
+  <si>
+    <t>You need to cut down on chocolate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn out </t>
+  </si>
+  <si>
+    <t>оказаться, обернуться</t>
+  </si>
+  <si>
+    <t>You turned out [to be] right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be taken aback </t>
+  </si>
+  <si>
+    <t>быть ошеломленным</t>
+  </si>
+  <si>
+    <t>I was taken aback by such unpredictable results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get down to </t>
+  </si>
+  <si>
+    <t>приступать</t>
+  </si>
+  <si>
+    <t>Let’s get down to business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn down </t>
+  </si>
+  <si>
+    <t>сгореть до тла, сжечь до тла</t>
+  </si>
+  <si>
+    <t>They burnt down the village.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boot up </t>
+  </si>
+  <si>
+    <t>загрузить(ПК)</t>
+  </si>
+  <si>
+    <t>I’ll boot up the computer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop around </t>
+  </si>
+  <si>
+    <t>I’d like to shop around for a computer.</t>
+  </si>
+  <si>
+    <t>подыскивать, прицениваться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure up to </t>
+  </si>
+  <si>
+    <t>соответствовать</t>
+  </si>
+  <si>
+    <t>It doesn’t measure up to these standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be up to </t>
+  </si>
+  <si>
+    <t>зависеть</t>
+  </si>
+  <si>
+    <t>It’s up to you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrap up </t>
+  </si>
+  <si>
+    <t>обертывать, заварачивать</t>
+  </si>
+  <si>
+    <t>I wrapped up this parcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stick to, cling to </t>
+  </si>
+  <si>
+    <t>придерживаться какой-то идеи</t>
+  </si>
+  <si>
+    <t>I stick to the idea/belief that we should have equal rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass away </t>
+  </si>
+  <si>
+    <t>умереть</t>
+  </si>
+  <si>
+    <t>He passed away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hang up </t>
+  </si>
+  <si>
+    <t>She hung up.</t>
+  </si>
+  <si>
+    <t>повесить(трубку)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blow up </t>
+  </si>
+  <si>
+    <t>взорвать, надувать</t>
+  </si>
+  <si>
+    <t>Can you blow up this balloon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get rid of </t>
+  </si>
+  <si>
+    <t>избавиться от</t>
+  </si>
+  <si>
+    <t>My aim is to get rid of these mistakes</t>
+  </si>
+  <si>
+    <t>Rip off</t>
+  </si>
+  <si>
+    <t>обсчитывать (кого-то)</t>
+  </si>
+  <si>
+    <t>It’s very easy to rip him off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep off </t>
+  </si>
+  <si>
+    <t>не пускать</t>
+  </si>
+  <si>
+    <t>Keep off the grass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">задерживаться </t>
+  </si>
+  <si>
+    <t>I was held up in a traffic jam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw up </t>
+  </si>
+  <si>
+    <t>рвать (рвота) – vomit</t>
+  </si>
+  <si>
+    <t>He threw up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act up </t>
+  </si>
+  <si>
+    <t>капризничать</t>
+  </si>
+  <si>
+    <t>Children often act up.</t>
+  </si>
+  <si>
+    <t>Bail out</t>
+  </si>
+  <si>
+    <t>помогать финасово, спасать от банкротсва</t>
+  </si>
+  <si>
+    <t>The government tried to bail this company out.</t>
+  </si>
+  <si>
+    <t>Answer back</t>
+  </si>
+  <si>
+    <t>огрызаться, грубо отвечать</t>
+  </si>
+  <si>
+    <t>He answered her back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take out </t>
+  </si>
+  <si>
+    <t>снять (деньги)</t>
+  </si>
+  <si>
+    <t>How much would you like to take out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break out </t>
+  </si>
+  <si>
+    <t>разразиться, вырваться наружу</t>
+  </si>
+  <si>
+    <t>The war broke out last year</t>
+  </si>
+  <si>
+    <t>Stand out</t>
+  </si>
+  <si>
+    <t>выделяться, выгодно отличаться</t>
+  </si>
+  <si>
+    <t>This worker stands out from the rest.</t>
+  </si>
+  <si>
+    <t>Clamp down, crack down</t>
+  </si>
+  <si>
+    <t>принять меры (жесткие)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The government decided to clamp down on unemployment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take on </t>
+  </si>
+  <si>
+    <t>We need to take on new staff.</t>
+  </si>
+  <si>
+    <t>нанимать</t>
+  </si>
+  <si>
+    <t>Ask out</t>
+  </si>
+  <si>
+    <t>He decided to ask her out.</t>
+  </si>
+  <si>
+    <t>пригласить на свидание.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get away with it </t>
+  </si>
+  <si>
+    <t>выйти сухим из воды, избежать</t>
+  </si>
+  <si>
+    <t>He wanted to get away with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burst out doing </t>
+  </si>
+  <si>
+    <t>He burst out laughing.</t>
+  </si>
+  <si>
+    <t>Burst into</t>
+  </si>
+  <si>
+    <t>разразиться (действие)</t>
+  </si>
+  <si>
+    <t>разразиться (чем-либо)</t>
+  </si>
+  <si>
+    <t>She burst into tears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die down </t>
+  </si>
+  <si>
+    <t>утихнуть</t>
+  </si>
+  <si>
+    <t>The sound died down.</t>
+  </si>
+  <si>
+    <t>Tear up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">порвать </t>
+  </si>
+  <si>
+    <t>He tore up the book/magazine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own up to [doing] </t>
+  </si>
+  <si>
+    <t>признаваться</t>
+  </si>
+  <si>
+    <t>No one owned up to [making] these mistakes.</t>
+  </si>
+  <si>
+    <t>Run across someone</t>
+  </si>
+  <si>
+    <t>случайно встретить кого-либо</t>
+  </si>
+  <si>
+    <t>I ran across him yesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lay off </t>
+  </si>
+  <si>
+    <t>уволить</t>
+  </si>
+  <si>
+    <t>Twenty workers were laid off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wear out </t>
+  </si>
+  <si>
+    <t>изнурять, утомлять</t>
+  </si>
+  <si>
+    <t>It’s wearing me out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall for </t>
+  </si>
+  <si>
+    <t>влюбиться</t>
+  </si>
+  <si>
+    <t>He fell for that girl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go in for </t>
+  </si>
+  <si>
+    <t>увлекаться чем-то</t>
+  </si>
+  <si>
+    <t>She doesn’t go in for sports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell off </t>
+  </si>
+  <si>
+    <t>ругать, выговаривать</t>
+  </si>
+  <si>
+    <t>He was told off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay back </t>
+  </si>
+  <si>
+    <t>возвратить долг</t>
+  </si>
+  <si>
+    <t>He hasn’t pay me back yet.</t>
+  </si>
+  <si>
+    <t>Bottle up</t>
+  </si>
+  <si>
+    <t>сдерживать, держать в себе</t>
+  </si>
+  <si>
+    <t>He bottled up anger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring down </t>
+  </si>
+  <si>
+    <t>снижать (цену)</t>
+  </si>
+  <si>
+    <t>They decided to bring down the price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear up </t>
+  </si>
+  <si>
+    <t>проясняться (о погоде)</t>
+  </si>
+  <si>
+    <t>We’ll go out if the weather clears up.</t>
+  </si>
+  <si>
+    <t>Clear up</t>
+  </si>
+  <si>
+    <t>расчистить (беспорядок)</t>
+  </si>
+  <si>
+    <t>Clear up this mess!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come to </t>
+  </si>
+  <si>
+    <t>прийти к какому-либо решению, выводу</t>
+  </si>
+  <si>
+    <t>I came to the conclusion that I would have to do it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get by </t>
+  </si>
+  <si>
+    <t>обходиться, выживать</t>
+  </si>
+  <si>
+    <t>How do you get by?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put through </t>
+  </si>
+  <si>
+    <t>соединять (по телефону)</t>
+  </si>
+  <si>
+    <t>I’ll put you through to him.</t>
+  </si>
+  <si>
+    <t>Come down to, boil down to</t>
+  </si>
+  <si>
+    <t>сводиться к чему либо</t>
+  </si>
+  <si>
+    <t>This problem comes down to money.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut down </t>
+  </si>
+  <si>
+    <t>Рубить</t>
+  </si>
+  <si>
+    <t>He cut down this tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask around </t>
+  </si>
+  <si>
+    <t>спрашивать тут и там</t>
+  </si>
+  <si>
+    <t>I asked around but no one knew it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall through </t>
+  </si>
+  <si>
+    <t>провалиться (проект)</t>
+  </si>
+  <si>
+    <t>The project fell through.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come up with </t>
+  </si>
+  <si>
+    <t>прийти (об идее)</t>
+  </si>
+  <si>
+    <t>I came up with an interesting solution to this problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change into, turn into </t>
+  </si>
+  <si>
+    <t>превратиться</t>
+  </si>
+  <si>
+    <t>He turned into a successful businessman.</t>
+  </si>
+  <si>
+    <t>Account for</t>
+  </si>
+  <si>
+    <t>объяснить</t>
+  </si>
+  <si>
+    <t>How can you account for this accident?</t>
+  </si>
+  <si>
+    <t>Give in / up</t>
+  </si>
+  <si>
+    <t>They had to give in (to their demands).</t>
+  </si>
+  <si>
+    <t>уступить, сдаваться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write up </t>
+  </si>
+  <si>
+    <t>придать (оконченный вид), записать</t>
+  </si>
+  <si>
+    <t>When will you write up this report?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind up </t>
+  </si>
+  <si>
+    <t>оказываться</t>
+  </si>
+  <si>
+    <t>He can wind up in prison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind down </t>
+  </si>
+  <si>
+    <t>расслабляться, отдыхать</t>
+  </si>
+  <si>
+    <t>How do you usually wind down after work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weigh up </t>
+  </si>
+  <si>
+    <t>взвешивать (за и против)</t>
+  </si>
+  <si>
+    <t>I’d like to weigh up all the cons and pros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn against </t>
+  </si>
+  <si>
+    <t xml:space="preserve">настраивать против </t>
+  </si>
+  <si>
+    <t>They turned against the president.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidy up </t>
+  </si>
+  <si>
+    <t>навести порядок</t>
+  </si>
+  <si>
+    <t>Tidy up your room.</t>
+  </si>
+  <si>
+    <t>Throw away</t>
+  </si>
+  <si>
+    <t>выбрасывать</t>
+  </si>
+  <si>
+    <t>Don’t throw it away.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11372,7 +12213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E236"/>
   <sheetViews>
     <sheetView topLeftCell="A232" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -13321,7 +14162,7 @@
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C187" t="s">
         <v>707</v>
@@ -13625,109 +14466,109 @@
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C225" t="s">
         <v>820</v>
-      </c>
-      <c r="C225" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C226" t="s">
         <v>822</v>
-      </c>
-      <c r="C226" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C227" t="s">
         <v>824</v>
-      </c>
-      <c r="C227" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
+        <v>827</v>
+      </c>
+      <c r="C228" t="s">
         <v>828</v>
-      </c>
-      <c r="C228" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C229" t="s">
         <v>830</v>
-      </c>
-      <c r="C229" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C230" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C231" t="s">
         <v>835</v>
-      </c>
-      <c r="C231" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C232" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C233" t="s">
         <v>1145</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C234" t="s">
         <v>1147</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C235" t="s">
         <v>1149</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C236" t="s">
         <v>1151</v>
       </c>
-      <c r="C236" t="s">
-        <v>1152</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E115"/>
+  <autoFilter ref="B2:E115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13756,7 +14597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:E222"/>
   <sheetViews>
     <sheetView topLeftCell="B197" workbookViewId="0">
@@ -13778,427 +14619,427 @@
         <v>766</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>872</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>880</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>932</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -14206,7 +15047,7 @@
         <v>703</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -14214,159 +15055,159 @@
         <v>705</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>950</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>964</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>972</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>974</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -14374,23 +15215,23 @@
         <v>802</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
@@ -14398,754 +15239,754 @@
         <v>735</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D83" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D84" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D86" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D87" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D88" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D89" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D90" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D91" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D92" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D93" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D95" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D96" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D97" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D98" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D99" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D102" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D103" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D104" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D106" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D107" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D108" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D109" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D110" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D111" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D112" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D168" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D169" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D170" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D171" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D172" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D173" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D174" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D175" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D176" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D177" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D178" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D179" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D180" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D181" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D182" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D183" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D184" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D185" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D186" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D187" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D188" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D189" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D190" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D191" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D192" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D193" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D194" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D195" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D196" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D197" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D198" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D199" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D200" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D201" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D202" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D203" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D204" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D205" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D206" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D207" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D208" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D209" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D210" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D211" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D212" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D213" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D214" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D215" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D216" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D217" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D218" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D219" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D220" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D221" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D222" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -15155,11 +15996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="B233" workbookViewId="0">
+      <selection activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15300,7 +16141,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C18" t="s">
         <v>793</v>
@@ -15311,86 +16152,86 @@
         <v>816</v>
       </c>
       <c r="C20" t="s">
-        <v>817</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>817</v>
+      </c>
+      <c r="C21" t="s">
         <v>818</v>
-      </c>
-      <c r="C21" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>825</v>
+      </c>
+      <c r="C22" t="s">
         <v>826</v>
-      </c>
-      <c r="C22" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C23" t="s">
         <v>833</v>
-      </c>
-      <c r="C23" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C24" t="s">
         <v>1153</v>
       </c>
-      <c r="C24" t="s">
-        <v>1154</v>
-      </c>
       <c r="D24" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C25" t="s">
         <v>561</v>
       </c>
       <c r="D25" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C26" t="s">
         <v>628</v>
       </c>
       <c r="D26" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C27" t="s">
         <v>1157</v>
       </c>
-      <c r="C27" t="s">
-        <v>1158</v>
-      </c>
       <c r="D27" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C28" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D28" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -15401,43 +16242,43 @@
         <v>789</v>
       </c>
       <c r="D29" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C30" t="s">
         <v>1162</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E30" t="s">
         <v>1163</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C31" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D31" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C32" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D32" t="s">
         <v>1170</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -15445,148 +16286,148 @@
         <v>273</v>
       </c>
       <c r="C33" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D33" t="s">
         <v>1168</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C34" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D34" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C35" t="s">
         <v>1181</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E35" t="s">
         <v>1182</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C36" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D36" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C37" t="s">
         <v>1189</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E37" t="s">
         <v>1190</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C38" t="s">
         <v>1192</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>1193</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C39" t="s">
         <v>1196</v>
       </c>
-      <c r="C39" t="s">
-        <v>1197</v>
-      </c>
       <c r="D39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C40" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D40" t="s">
         <v>1198</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C41" t="s">
         <v>1200</v>
       </c>
-      <c r="C41" t="s">
-        <v>1201</v>
-      </c>
       <c r="D41" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C42" t="s">
         <v>1202</v>
       </c>
-      <c r="C42" t="s">
-        <v>1203</v>
-      </c>
       <c r="D42" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C43" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D43" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C44" t="s">
         <v>411</v>
       </c>
       <c r="D44" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C45" t="s">
         <v>1211</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>1212</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -15594,71 +16435,71 @@
         <v>284</v>
       </c>
       <c r="C46" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D46" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C47" t="s">
         <v>1216</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>1217</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C48" t="s">
         <v>1219</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>1220</v>
       </c>
-      <c r="D48" t="s">
-        <v>1221</v>
-      </c>
       <c r="E48" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C49" t="s">
         <v>1223</v>
       </c>
-      <c r="C49" t="s">
-        <v>1224</v>
-      </c>
       <c r="D49" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E49" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C50" t="s">
         <v>1227</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>1228</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C51" t="s">
         <v>1230</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>1231</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -15666,10 +16507,10 @@
         <v>167</v>
       </c>
       <c r="C52" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D52" t="s">
         <v>1233</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -15677,87 +16518,87 @@
         <v>168</v>
       </c>
       <c r="C53" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D53" t="s">
         <v>1235</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C54" t="s">
         <v>1237</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>1238</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C55" t="s">
         <v>1240</v>
       </c>
-      <c r="C55" t="s">
-        <v>1241</v>
-      </c>
       <c r="D55" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C56" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D56" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C57" t="s">
         <v>1245</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>1246</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C58" t="s">
         <v>1248</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>1249</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D59" t="s">
         <v>1251</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C60" t="s">
         <v>1254</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>1255</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -15768,76 +16609,76 @@
         <v>264</v>
       </c>
       <c r="D61" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C62" t="s">
         <v>1258</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>1259</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C63" t="s">
         <v>1261</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>1262</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C64" t="s">
         <v>1264</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>1265</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C65" t="s">
         <v>1267</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>1268</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C66" t="s">
         <v>1270</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>1271</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E67" t="s">
         <v>1273</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
@@ -15845,217 +16686,217 @@
         <v>808</v>
       </c>
       <c r="C68" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D68" t="s">
         <v>1277</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C69" t="s">
         <v>1279</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>1280</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D70" t="s">
         <v>1282</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C71" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D71" t="s">
         <v>1285</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C72" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D72" t="s">
         <v>1289</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C73" t="s">
         <v>1291</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>1292</v>
       </c>
-      <c r="D73" t="s">
-        <v>1293</v>
-      </c>
       <c r="E73" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C74" t="s">
         <v>1294</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>1295</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C75" t="s">
         <v>1297</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>1298</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C76" t="s">
         <v>1300</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>1301</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C77" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D77" t="s">
         <v>1303</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>1304</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C78" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D78" t="s">
         <v>1308</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C79" t="s">
         <v>1310</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>1311</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D80" t="s">
         <v>1313</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D81" t="s">
         <v>1316</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C82" t="s">
         <v>1319</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>1320</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C83" t="s">
         <v>815</v>
       </c>
       <c r="D83" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E83" t="s">
         <v>1323</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C84" t="s">
         <v>1325</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>1326</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C85" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D85" t="s">
         <v>1356</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C86" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D86" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
@@ -16066,134 +16907,134 @@
         <v>461</v>
       </c>
       <c r="D87" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C88" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D88" t="s">
         <v>1361</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C89" t="s">
         <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C90" t="s">
         <v>1332</v>
       </c>
-      <c r="C90" t="s">
-        <v>1333</v>
-      </c>
       <c r="D90" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C91" t="s">
         <v>1334</v>
       </c>
-      <c r="C91" t="s">
-        <v>1335</v>
-      </c>
       <c r="D91" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C92" t="s">
         <v>1336</v>
       </c>
-      <c r="C92" t="s">
-        <v>1337</v>
-      </c>
       <c r="D92" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C93" t="s">
         <v>1338</v>
       </c>
-      <c r="C93" t="s">
-        <v>1339</v>
-      </c>
       <c r="D93" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C94" t="s">
         <v>1340</v>
       </c>
-      <c r="C94" t="s">
-        <v>1341</v>
-      </c>
       <c r="D94" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C95" t="s">
         <v>1342</v>
       </c>
-      <c r="C95" t="s">
-        <v>1343</v>
-      </c>
       <c r="D95" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C96" t="s">
         <v>1344</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E96" t="s">
         <v>1345</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E97" t="s">
         <v>1347</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C98" t="s">
         <v>1350</v>
       </c>
-      <c r="C98" t="s">
-        <v>1351</v>
-      </c>
       <c r="D98" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
@@ -16201,536 +17042,536 @@
         <v>641</v>
       </c>
       <c r="C99" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E99" t="s">
         <v>1352</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C100" t="s">
         <v>1354</v>
       </c>
-      <c r="C100" t="s">
-        <v>1355</v>
-      </c>
       <c r="D100" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C101" t="s">
         <v>1375</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>1376</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C102" t="s">
         <v>1378</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>1379</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C103" t="s">
         <v>1381</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>1382</v>
-      </c>
-      <c r="D103" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C104" t="s">
         <v>1384</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>1385</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C105" t="s">
         <v>1387</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>1388</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C106" t="s">
         <v>1390</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>1391</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C107" t="s">
         <v>1393</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>1394</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C108" t="s">
         <v>1396</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>1397</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C109" t="s">
         <v>1399</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>1400</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C110" t="s">
         <v>1402</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>1403</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C111" t="s">
         <v>1405</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>1406</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C112" t="s">
         <v>1408</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>1409</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C113" t="s">
         <v>1411</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>1412</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C114" t="s">
         <v>1414</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>1415</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C115" t="s">
         <v>1417</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>1418</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C116" t="s">
         <v>1420</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>1421</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C117" t="s">
         <v>1423</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>1424</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C118" t="s">
         <v>1426</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>1427</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C119" t="s">
         <v>1429</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>1430</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C120" t="s">
         <v>1432</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>1433</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C121" t="s">
         <v>1435</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>1436</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D122" t="s">
         <v>1439</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C123" t="s">
         <v>1441</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>1442</v>
-      </c>
-      <c r="D123" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C124" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D124" t="s">
         <v>1444</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C125" t="s">
         <v>1447</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>1448</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C126" t="s">
         <v>1450</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>1451</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C127" t="s">
         <v>1453</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>1454</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C128" t="s">
         <v>1456</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>1457</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C129" t="s">
         <v>1459</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E129" t="s">
         <v>1460</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C130" t="s">
         <v>1463</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>1464</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C131" t="s">
         <v>1466</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>1467</v>
-      </c>
-      <c r="D131" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C132" t="s">
         <v>1469</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>1470</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C133" t="s">
         <v>1472</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>1473</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C134" t="s">
         <v>1475</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>1476</v>
-      </c>
-      <c r="D134" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C135" t="s">
         <v>1478</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>1479</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C136" t="s">
         <v>1481</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>1482</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C137" t="s">
         <v>1484</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>1485</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C138" t="s">
         <v>1487</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>1488</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C139" t="s">
         <v>1490</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>1491</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>1492</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C140" t="s">
         <v>1494</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>1495</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C141" t="s">
         <v>1497</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>1498</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D142" t="s">
         <v>1500</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C143" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D143" t="s">
         <v>1503</v>
-      </c>
-      <c r="D143" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D144" t="s">
         <v>1505</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C145" t="s">
         <v>1508</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>1509</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C146" t="s">
         <v>1511</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>1512</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
@@ -16738,176 +17579,1215 @@
         <v>278</v>
       </c>
       <c r="C147" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E147" t="s">
         <v>1514</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C148" t="s">
         <v>1517</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>1518</v>
-      </c>
-      <c r="D148" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D149" t="s">
         <v>1521</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D149" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E150" t="s">
         <v>1523</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C151" t="s">
         <v>1527</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>1528</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C152" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D152" t="s">
         <v>1530</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C153" t="s">
         <v>1532</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>1533</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E154" t="s">
         <v>1535</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C155" t="s">
         <v>589</v>
       </c>
       <c r="D155" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C156" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D156" t="s">
         <v>1541</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C157" t="s">
         <v>1543</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>1544</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C158" t="s">
         <v>1546</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>1547</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D159" t="s">
         <v>1550</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C160" t="s">
         <v>1552</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>1553</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E161" t="s">
         <v>1555</v>
       </c>
-      <c r="C161" t="s">
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>261</v>
+      </c>
+      <c r="C162" t="s">
         <v>1558</v>
       </c>
-      <c r="D161" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1556</v>
+      <c r="D162" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C179" t="s">
+        <v>711</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1838</v>
       </c>
     </row>
   </sheetData>
@@ -16917,7 +18797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\OrangePlaylistPracticeEnglish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\English\Orange\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B69AD-016D-4FF3-8A27-404D03C01BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$2:$E$115</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1984">
   <si>
     <t xml:space="preserve"> инициатива</t>
   </si>
@@ -11818,12 +11817,447 @@
   </si>
   <si>
     <t>Don’t throw it away.</t>
+  </si>
+  <si>
+    <t>Hack into</t>
+  </si>
+  <si>
+    <t>взломать (комп)</t>
+  </si>
+  <si>
+    <t>They hacked into his computer.</t>
+  </si>
+  <si>
+    <t>Go with</t>
+  </si>
+  <si>
+    <t>сочетаться</t>
+  </si>
+  <si>
+    <t>This sofa doesn’t go with the chairs.</t>
+  </si>
+  <si>
+    <t>Go under</t>
+  </si>
+  <si>
+    <t>разоряться</t>
+  </si>
+  <si>
+    <t>The company went under.</t>
+  </si>
+  <si>
+    <t>Go together</t>
+  </si>
+  <si>
+    <t>сочетаться вместе</t>
+  </si>
+  <si>
+    <t>These colors don’t go together.</t>
+  </si>
+  <si>
+    <t>Go by</t>
+  </si>
+  <si>
+    <t>проходить мимо (время)</t>
+  </si>
+  <si>
+    <t>A new car went by.</t>
+  </si>
+  <si>
+    <t>Dwell on (upon)</t>
+  </si>
+  <si>
+    <t>рассуждать (долго о чем-то неприятном), зацикливаться</t>
+  </si>
+  <si>
+    <t>I don’t want to dwell on the past.</t>
+  </si>
+  <si>
+    <t>Come up</t>
+  </si>
+  <si>
+    <t>происходить, случаться</t>
+  </si>
+  <si>
+    <t>A very strange thing came up</t>
+  </si>
+  <si>
+    <t>Come up to</t>
+  </si>
+  <si>
+    <t>He came up to her.</t>
+  </si>
+  <si>
+    <t>подойти к</t>
+  </si>
+  <si>
+    <t>Bring off</t>
+  </si>
+  <si>
+    <t>успешно справиться</t>
+  </si>
+  <si>
+    <t>I’ll managed to bring it off</t>
+  </si>
+  <si>
+    <t>Plug smth in</t>
+  </si>
+  <si>
+    <t>Can you plug iron in for me?</t>
+  </si>
+  <si>
+    <t>включить (сеть)</t>
+  </si>
+  <si>
+    <t>Plug into</t>
+  </si>
+  <si>
+    <t>включить куда либо(в розетку)</t>
+  </si>
+  <si>
+    <t>I need to plug it into a wall socket.</t>
+  </si>
+  <si>
+    <t>Zoom in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> давать изображение крупным планом</t>
+  </si>
+  <si>
+    <t>The camera zoomed in on his face.</t>
+  </si>
+  <si>
+    <t>Zoom out</t>
+  </si>
+  <si>
+    <t>уменьшить</t>
+  </si>
+  <si>
+    <t>The camera zoomed out on his face</t>
+  </si>
+  <si>
+    <t>Write off</t>
+  </si>
+  <si>
+    <t>списывать со счетов</t>
+  </si>
+  <si>
+    <t>They wrote off all his debts.</t>
+  </si>
+  <si>
+    <t>Bring in</t>
+  </si>
+  <si>
+    <t>привлекать кого-либо к чему-либо</t>
+  </si>
+  <si>
+    <t>We’ll have to bring in extra (additional) workers.</t>
+  </si>
+  <si>
+    <t>Plan ahead</t>
+  </si>
+  <si>
+    <t>составлять планы на будущее</t>
+  </si>
+  <si>
+    <t>You’d better plan ahead.</t>
+  </si>
+  <si>
+    <t>Go ahead with</t>
+  </si>
+  <si>
+    <t>начинать (какую-то работу)</t>
+  </si>
+  <si>
+    <t>I’ll go ahead with this project soon.</t>
+  </si>
+  <si>
+    <t>Run through</t>
+  </si>
+  <si>
+    <t>повторять, репетировать</t>
+  </si>
+  <si>
+    <t>I need to run through my speech.</t>
+  </si>
+  <si>
+    <t>Leave aside</t>
+  </si>
+  <si>
+    <t>не принимать во внимание. (оставить в стороне)</t>
+  </si>
+  <si>
+    <t>Don’t leave these details aside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hang about/round/around </t>
+  </si>
+  <si>
+    <t>бездельничать</t>
+  </si>
+  <si>
+    <t>I don’t like it when others hang about.</t>
+  </si>
+  <si>
+    <t>Laze about/around</t>
+  </si>
+  <si>
+    <t>Fool about/around</t>
+  </si>
+  <si>
+    <t>Mess about/around</t>
+  </si>
+  <si>
+    <t>I don’t like it when others laze about.</t>
+  </si>
+  <si>
+    <t>I don’t like it when others fool about.</t>
+  </si>
+  <si>
+    <t>I don’t like it when others mess about.</t>
+  </si>
+  <si>
+    <t>Shut up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> замолчать (rude/impolite)</t>
+  </si>
+  <si>
+    <t>He told her to shut up.</t>
+  </si>
+  <si>
+    <t>Spark off</t>
+  </si>
+  <si>
+    <t>стать причиной, вызвать</t>
+  </si>
+  <si>
+    <t>It sparked off a very big scandal.</t>
+  </si>
+  <si>
+    <t>Shut down</t>
+  </si>
+  <si>
+    <t>закрывать (бизнес)</t>
+  </si>
+  <si>
+    <t>The factory shut down.</t>
+  </si>
+  <si>
+    <t>Jot down</t>
+  </si>
+  <si>
+    <t>быстро записывать (строчить)</t>
+  </si>
+  <si>
+    <t>I need to jot it down.</t>
+  </si>
+  <si>
+    <t>Get down</t>
+  </si>
+  <si>
+    <t>I’d like to get it down.</t>
+  </si>
+  <si>
+    <t>Cut off</t>
+  </si>
+  <si>
+    <t>Отрезать, разъединить</t>
+  </si>
+  <si>
+    <t>The electricity supply was cut off.</t>
+  </si>
+  <si>
+    <t>Head for</t>
+  </si>
+  <si>
+    <t>направляться куда-то</t>
+  </si>
+  <si>
+    <t>They headed for New York</t>
+  </si>
+  <si>
+    <t>Move up to</t>
+  </si>
+  <si>
+    <t>придвинуться</t>
+  </si>
+  <si>
+    <t>He moved up to her.</t>
+  </si>
+  <si>
+    <t>Put down to</t>
+  </si>
+  <si>
+    <t>приписывать, объяснять</t>
+  </si>
+  <si>
+    <t>I put it down to his laziness.</t>
+  </si>
+  <si>
+    <t>Draw up</t>
+  </si>
+  <si>
+    <t>составлять, набрасывать (план)</t>
+  </si>
+  <si>
+    <t>I drew up a plan</t>
+  </si>
+  <si>
+    <t>Devote to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уделять </t>
+  </si>
+  <si>
+    <t>He doesn’t devote enough time to English.</t>
+  </si>
+  <si>
+    <t>Keep away from</t>
+  </si>
+  <si>
+    <t>держаться в стороне от</t>
+  </si>
+  <si>
+    <t>Keep away from these people.</t>
+  </si>
+  <si>
+    <t>Open up</t>
+  </si>
+  <si>
+    <t>раскрывать, делать доступным</t>
+  </si>
+  <si>
+    <t>It opens up unique/amazing opportunity for me.</t>
+  </si>
+  <si>
+    <t>Brighten up</t>
+  </si>
+  <si>
+    <t>делать ярче, оживлять</t>
+  </si>
+  <si>
+    <t>It brightens up my life</t>
+  </si>
+  <si>
+    <t>See through someone</t>
+  </si>
+  <si>
+    <t>видеть насквозь.</t>
+  </si>
+  <si>
+    <t>I saw through him at once.</t>
+  </si>
+  <si>
+    <t>Read through</t>
+  </si>
+  <si>
+    <t>прочитать от начала до конца.</t>
+  </si>
+  <si>
+    <t>I need to read through this contract.</t>
+  </si>
+  <si>
+    <t>Polish up</t>
+  </si>
+  <si>
+    <t>улучшить (знания), полировать</t>
+  </si>
+  <si>
+    <t>I’d like to polish up my English before going to England</t>
+  </si>
+  <si>
+    <t>Scribble down</t>
+  </si>
+  <si>
+    <t>записать (как попало)</t>
+  </si>
+  <si>
+    <t>I scribbled down his phone number.</t>
+  </si>
+  <si>
+    <t>перебивать, прерывать разговор</t>
+  </si>
+  <si>
+    <t>Cut in [on someone]</t>
+  </si>
+  <si>
+    <t>He cut in on her again.</t>
+  </si>
+  <si>
+    <t>Look in</t>
+  </si>
+  <si>
+    <t>Зайти, заглянуть</t>
+  </si>
+  <si>
+    <t>I’ll look in soon.</t>
+  </si>
+  <si>
+    <t>Look in on</t>
+  </si>
+  <si>
+    <t>заглянуть к кому-нибудь</t>
+  </si>
+  <si>
+    <t>I’ll look in on you this evening.</t>
+  </si>
+  <si>
+    <t>Bear with</t>
+  </si>
+  <si>
+    <t>потерпеть кого-либо</t>
+  </si>
+  <si>
+    <t>Bear with me. I’ll finish it soon.</t>
+  </si>
+  <si>
+    <t>Think ahead</t>
+  </si>
+  <si>
+    <t>думать наперед</t>
+  </si>
+  <si>
+    <t>I prefer to think ahead.</t>
+  </si>
+  <si>
+    <t>Run down</t>
+  </si>
+  <si>
+    <t>He was run down by a car.</t>
+  </si>
+  <si>
+    <t>Look over</t>
+  </si>
+  <si>
+    <t>просмотреть, осмотреть</t>
+  </si>
+  <si>
+    <t>I’ll look over this report.</t>
+  </si>
+  <si>
+    <t>Churn out</t>
+  </si>
+  <si>
+    <t>штамповать</t>
+  </si>
+  <si>
+    <t>They churn out these goods.</t>
+  </si>
+  <si>
+    <t>Let down</t>
+  </si>
+  <si>
+    <t>подводить</t>
+  </si>
+  <si>
+    <t>It’s highly unlikely that he’ll let us down.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12213,7 +12647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E236"/>
   <sheetViews>
     <sheetView topLeftCell="A232" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -14561,14 +14995,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:E115"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14597,7 +15031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E222"/>
   <sheetViews>
     <sheetView topLeftCell="B197" workbookViewId="0">
@@ -15996,16 +16430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:E256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B233" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -18790,6 +19224,556 @@
         <v>1838</v>
       </c>
     </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18797,7 +19781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">

--- a/words.xlsx
+++ b/words.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="1987">
   <si>
     <t xml:space="preserve"> инициатива</t>
   </si>
@@ -12252,6 +12252,15 @@
   </si>
   <si>
     <t>It’s highly unlikely that he’ll let us down.</t>
+  </si>
+  <si>
+    <t>give away</t>
+  </si>
+  <si>
+    <t>раздавать (бесплатно)</t>
+  </si>
+  <si>
+    <t>He gave away his old things</t>
   </si>
 </sst>
 </file>
@@ -16431,10 +16440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E306"/>
+  <dimension ref="B2:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18396,1381 +18405,1392 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>1613</v>
+        <v>1984</v>
       </c>
       <c r="C181" t="s">
-        <v>1614</v>
+        <v>1985</v>
       </c>
       <c r="D181" t="s">
-        <v>1615</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="C182" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D182" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C183" t="s">
-        <v>1620</v>
+        <v>1617</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C184" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C185" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D185" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="C186" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D186" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="C187" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="D187" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C188" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="D188" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="C189" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="D189" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="C190" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D190" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="C191" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="D191" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="C192" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="D192" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="C193" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="D193" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="C194" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="D194" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C195" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="D195" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C196" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D196" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C197" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="D197" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="C198" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D198" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="C199" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D199" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C200" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="D200" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C201" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D201" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="C202" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="D202" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C203" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D203" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="C204" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="D204" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C205" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D205" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="C206" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="D206" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C207" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D207" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="C208" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="D208" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C209" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="D209" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="C210" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="D210" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="C211" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="D211" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C212" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D212" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C213" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="D213" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C214" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="D214" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C215" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D215" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="C216" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="D216" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C217" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="D217" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="C218" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="D218" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="C219" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="D219" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="C220" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="D220" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="C221" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D221" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="C222" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="D222" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C223" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="D223" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C224" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D224" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="C225" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="D225" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="C226" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D226" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C227" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="D227" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C228" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="D228" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C229" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="D229" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C230" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D230" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="C231" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D231" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="C232" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D232" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="C233" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="D233" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="C234" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D234" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="C235" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D235" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="C236" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D236" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="C237" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="D237" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="C238" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D238" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="C239" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="D239" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="C240" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="D240" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="C241" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="D241" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="C242" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D242" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="C243" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D243" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="C244" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="D244" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="C245" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="D245" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="C246" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="D246" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="C247" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="D247" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C248" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D248" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="C249" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="D249" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="C250" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D250" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="C251" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="D251" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="C252" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="D252" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="C253" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="D253" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="C254" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D254" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="C255" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="D255" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="C256" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="D256" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C257" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="D257" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C258" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="D258" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="C259" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="D259" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="C260" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="D260" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C261" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D261" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="C262" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D262" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="C263" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="D263" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C264" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="D264" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="C265" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D265" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C266" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="D266" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="C267" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D267" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C268" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D268" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C269" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D269" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="C270" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D270" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="C271" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="D271" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="C272" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D272" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="C273" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="D273" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="C274" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D274" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="C275" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="D275" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="C276" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D276" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="C277" t="s">
         <v>1897</v>
       </c>
       <c r="D277" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C278" t="s">
         <v>1897</v>
       </c>
       <c r="D278" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C279" t="s">
         <v>1897</v>
       </c>
       <c r="D279" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C280" t="s">
-        <v>1906</v>
+        <v>1897</v>
       </c>
       <c r="D280" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C281" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="D281" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="C282" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="D282" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="C283" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="D283" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="C284" t="s">
-        <v>1576</v>
+        <v>1915</v>
       </c>
       <c r="D284" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="C285" t="s">
-        <v>1920</v>
+        <v>1576</v>
       </c>
       <c r="D285" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="C286" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="D286" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="C287" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="D287" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="C288" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="D288" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="C289" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="D289" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="C290" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="D290" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="C291" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="D291" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="C292" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="D292" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="C293" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="D293" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="C294" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="D294" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="C295" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="D295" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="C296" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="D296" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="C297" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="D297" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="C298" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D298" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="C299" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="D299" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="C300" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="D300" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="C301" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D301" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="C302" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="D302" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="C303" t="s">
-        <v>1408</v>
+        <v>1971</v>
       </c>
       <c r="D303" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C304" t="s">
-        <v>1976</v>
+        <v>1408</v>
       </c>
       <c r="D304" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="C305" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="D305" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
         <v>1981</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C307" t="s">
         <v>1982</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D307" t="s">
         <v>1983</v>
       </c>
     </row>
